--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -558,15 +588,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -581,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +640,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +680,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,15 +718,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -743,4 +744,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,4 +1029,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1541,4 +1542,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1550,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,17 +1562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1581,14 +1602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.37</v>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1597,14 +1640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.51</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1613,14 +1678,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1629,13 +1716,1441 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3049,7 +3050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,17 +3061,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3080,14 +3101,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.16</v>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3096,14 +3139,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.37</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3112,14 +3177,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.51</v>
       </c>
     </row>
     <row r="5">
@@ -3128,14 +3215,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3144,13 +3253,1495 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4624,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4635,17 +4636,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4655,14 +4676,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.51</v>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4671,14 +4714,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.16</v>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4687,14 +4752,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.37</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4703,14 +4790,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.51</v>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4719,14 +4828,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4735,13 +4866,1927 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>10.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>5.51</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>6.16</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>5.37</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +4806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5699,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6211,7 +6816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6495,7 +7100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6627,7 +7232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
+++ b/数据整理/stocks/A股/上证主板/605358-立昂微.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>10.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>5.51</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>6.16</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>5.37</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.51</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -616,7 +633,649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3232,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4806,7 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6304,7 +6963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6816,7 +7475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7100,7 +7759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7230,172 +7889,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0235</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>